--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/PERT-chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/PERT-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2FDDA-A7CF-46AC-AF0F-4A45255AD8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A26CB3-91C3-4D84-9928-445F0D31F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>68,62</t>
   </si>
   <si>
-    <t>Lack of clarity in requirements</t>
-  </si>
-  <si>
     <t>Delays in internal review</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding requirements, and lack of software fuctionalities </t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1263,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1319,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1767,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1851,7 +1851,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1907,7 +1907,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>42</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2103,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>36</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>49</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
         <v>41</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>42</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2327,7 +2327,7 @@
         <v>43</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2355,7 +2355,7 @@
         <v>43</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2383,7 +2383,7 @@
         <v>43</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2411,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>59</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
         <v>62</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>50</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
         <v>51</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2579,7 +2579,7 @@
         <v>52</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2607,7 +2607,7 @@
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
         <v>54</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
         <v>55</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2691,7 +2691,7 @@
         <v>56</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>57</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
         <v>58</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2775,7 +2775,7 @@
         <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2803,7 +2803,7 @@
         <v>60</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2831,7 +2831,7 @@
         <v>61</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
         <v>76</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>63</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
         <v>64</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2943,7 +2943,7 @@
         <v>65</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2971,7 +2971,7 @@
         <v>66</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>67</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3027,7 +3027,7 @@
         <v>83</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/PERT-chart.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/PERT-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A26CB3-91C3-4D84-9928-445F0D31F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A83FE61-C84A-44F7-BA06-0F0AB70F8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7573F3-6188-4FA9-9041-50436B486355}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>15. Create and validate legacy database backups</t>
   </si>
   <si>
-    <t>16. Normalize and prepare data for migration</t>
-  </si>
-  <si>
     <t>17. Migrate databases to the cloud</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>37. Prepare user manuals and reference guides</t>
   </si>
   <si>
-    <t>38. Organize and conduct training sessions</t>
-  </si>
-  <si>
     <t>36,37</t>
   </si>
   <si>
@@ -188,18 +182,12 @@
     <t>Ninguna (inicio Scrum)</t>
   </si>
   <si>
-    <t>41. Prioritize tasks and estimate effort</t>
-  </si>
-  <si>
     <t>42. Plan Sprints and define goals</t>
   </si>
   <si>
     <t>43. Research technologies and frameworks</t>
   </si>
   <si>
-    <t>44. Design database connection and conduct PoCs</t>
-  </si>
-  <si>
     <t>45. Design web mockups and adjust with client</t>
   </si>
   <si>
@@ -299,162 +287,60 @@
     <t>Limited staff availability</t>
   </si>
   <si>
-    <t>Insufficient information, delays</t>
-  </si>
-  <si>
-    <t>Delays in feedback and approval</t>
-  </si>
-  <si>
-    <t>Lack of suitable options</t>
-  </si>
-  <si>
-    <t>Long negotiations, legal conditions</t>
-  </si>
-  <si>
     <t>Complexity and insufficient documentation</t>
   </si>
   <si>
-    <t>Rapid changes in technology</t>
-  </si>
-  <si>
-    <t>Lack of suitable options, costs</t>
-  </si>
-  <si>
     <t>Delays in the purchasing process</t>
   </si>
   <si>
-    <t>Backup failures, data loss</t>
-  </si>
-  <si>
-    <t>Inconsistent or incomplete data</t>
-  </si>
-  <si>
-    <t>Migration failures, system outages</t>
-  </si>
-  <si>
     <t>Migration errors, loss of integrity</t>
   </si>
   <si>
     <t>Incorrect configuration, vulnerabilities</t>
   </si>
   <si>
-    <t>Performance issues, tolerance failures</t>
-  </si>
-  <si>
     <t>Configuration failures, compatibility issues</t>
   </si>
   <si>
-    <t>Poorly defined requirements</t>
-  </si>
-  <si>
-    <t>Critical bugs, integration errors</t>
-  </si>
-  <si>
     <t>Incomplete testing, lack of testing resources</t>
   </si>
   <si>
     <t>Incompatibilities, omission of key policies</t>
   </si>
   <si>
-    <t>Integrated problems, failed final tests</t>
-  </si>
-  <si>
-    <t>Options Limited availability, availability issues</t>
-  </si>
-  <si>
-    <t>Negotiation delays, stock shortages</t>
-  </si>
-  <si>
-    <t>Technical incompatibilities, poor selection</t>
-  </si>
-  <si>
-    <t>Technical restrictions, contractual delays</t>
-  </si>
-  <si>
-    <t>Incorrect configuration, unauthorized access</t>
-  </si>
-  <si>
     <t>Unstable connectivity, non-functional VPN</t>
   </si>
   <si>
-    <t>Shipping delays, unit shortages</t>
-  </si>
-  <si>
     <t>Installation failures, missing licenses</t>
   </si>
   <si>
-    <t>Logistical issues, hardware incompatibility</t>
-  </si>
-  <si>
-    <t>Inadequate content, low acceptance</t>
-  </si>
-  <si>
     <t>Incomplete manuals, documentation errors</t>
   </si>
   <si>
     <t>Low support, lack of training resources</t>
   </si>
   <si>
-    <t>Limited feedback, low participation</t>
-  </si>
-  <si>
-    <t>Ambiguous or changing requirements</t>
-  </si>
-  <si>
     <t>Poor effort calculation, misalignment</t>
   </si>
   <si>
     <t>Poorly designed sprint, unclear goals</t>
   </si>
   <si>
-    <t>Inadequate or incompatible technology</t>
-  </si>
-  <si>
-    <t>Connection failures or failed tests</t>
-  </si>
-  <si>
     <t>Constant changes, poor customer feedback</t>
   </si>
   <si>
-    <t>Hidden costs, legal delays</t>
-  </si>
-  <si>
-    <t>Unintuitive design, late feedback</t>
-  </si>
-  <si>
     <t>Visual bugs, integration errors</t>
   </si>
   <si>
-    <t>Incomplete logic, performance issues</t>
-  </si>
-  <si>
-    <t>Failed tests, poor user experience</t>
-  </si>
-  <si>
-    <t>Poor control of Versions, poorly allocated resources</t>
-  </si>
-  <si>
-    <t>Client unavailable, rejected deliverables</t>
-  </si>
-  <si>
     <t>Vague or contradictory feedback</t>
   </si>
   <si>
-    <t>Failure to identify critical bugs</t>
-  </si>
-  <si>
     <t>Backlog of problems, unresolved bugs</t>
   </si>
   <si>
     <t>Last-minute changes, lack of agreement</t>
   </si>
   <si>
-    <t>Implementation failures, server problems</t>
-  </si>
-  <si>
-    <t>Incomplete configurations, access errors</t>
-  </si>
-  <si>
     <t>Undetected vulnerabilities, insufficient testing</t>
   </si>
   <si>
@@ -464,24 +350,15 @@
     <t>Resistance to change, low support</t>
   </si>
   <si>
-    <t>Incomplete documentation or deliverables</t>
-  </si>
-  <si>
     <t>Low participation, lack of follow-up</t>
   </si>
   <si>
-    <t>Late risk identification</t>
-  </si>
-  <si>
     <t>Lack of alignment with stakeholders</t>
   </si>
   <si>
     <t>Non-compliance, audit errors</t>
   </si>
   <si>
-    <t>Unhelpful or poorly documented lessons</t>
-  </si>
-  <si>
     <t>Loss of information, unbacked-up files</t>
   </si>
   <si>
@@ -491,9 +368,6 @@
     <t>Delays in client approval</t>
   </si>
   <si>
-    <t>Lack of support or team-experience</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -509,7 +383,133 @@
     <t>Dev</t>
   </si>
   <si>
-    <t xml:space="preserve">Understanding requirements, and lack of software fuctionalities </t>
+    <t>Inadequate content, low acceptance, too much material to cover, complexity of the material, technical language</t>
+  </si>
+  <si>
+    <t>16. Normalise and prepare data for migration</t>
+  </si>
+  <si>
+    <t>38. Organise and conduct training sessions</t>
+  </si>
+  <si>
+    <t>41. Prioritise tasks and estimate effort</t>
+  </si>
+  <si>
+    <t>Limited feedback, low participation, scattered feedback</t>
+  </si>
+  <si>
+    <t>Ambiguous or changing requirements, budget constraints, lack of technology experience, issues with legacy applications</t>
+  </si>
+  <si>
+    <t>Inadequate or incompatible technology, lack of legacy documentation</t>
+  </si>
+  <si>
+    <t>44. Design database connection</t>
+  </si>
+  <si>
+    <t>Connection failures or failed tests, incompatibility, security breaches</t>
+  </si>
+  <si>
+    <t>Hidden maintenance and operating costs, legal delays, periodic subscriptions, cost of personal certifications</t>
+  </si>
+  <si>
+    <t>Security breaches, poor coding practices, poor application performance, excessive resource consumption</t>
+  </si>
+  <si>
+    <t>Failed tests</t>
+  </si>
+  <si>
+    <t>Lack of follow-up, cost overruns, excessive workload, lack of internal training</t>
+  </si>
+  <si>
+    <t>Client delays, short meetings, insufficient feedback</t>
+  </si>
+  <si>
+    <t>Failure to identify critical bugs, overestimated development</t>
+  </si>
+  <si>
+    <t>Incomplete configurations, access errors, overly strict security policies, delays in adopting security policies</t>
+  </si>
+  <si>
+    <t>Implementation failures, server problems, very strong security integration makes integration tedious</t>
+  </si>
+  <si>
+    <t>Incomplete documentation or deliverables, unmet expectations</t>
+  </si>
+  <si>
+    <t>Late risk identification, unknown legal risks</t>
+  </si>
+  <si>
+    <t>Unhelpful or poorly documented lessons, inappropriate tool,</t>
+  </si>
+  <si>
+    <t>Lack of support or team-experience, lack of leadership</t>
+  </si>
+  <si>
+    <t>Insufficient information, delays, tight budget</t>
+  </si>
+  <si>
+    <t>Delays in feedback and approval, delays in delivering the budget</t>
+  </si>
+  <si>
+    <t>Lack of suitable options, Hidden costs, required licenses, poor support in the region, poor support worldwide</t>
+  </si>
+  <si>
+    <t>Long negotiations, legal conditions, inadequate attention to contract details and supplier selection, legal or financial risks</t>
+  </si>
+  <si>
+    <t>Rapid changes in technology, not covering all possible scenarios</t>
+  </si>
+  <si>
+    <t>Lack of suitable options, costs, delays</t>
+  </si>
+  <si>
+    <t>Inconsistent or incomplete data, corrupting data as a result of inadequate backup procedures</t>
+  </si>
+  <si>
+    <t>Migration failures, system outages, loss of information and data integrity</t>
+  </si>
+  <si>
+    <t>Performance issues, tolerance failures, not covering all possible scenarios</t>
+  </si>
+  <si>
+    <t>Critical bugs, integration errors, loss of information, Difficulty replicating the same functions in the new system</t>
+  </si>
+  <si>
+    <t>Negotiation delays, stock shortages, inadequate attention to contract details and supplier selection, legal or financial risks</t>
+  </si>
+  <si>
+    <t>Understanding requirements, and lack of software functionalities </t>
+  </si>
+  <si>
+    <t>Backup failures, data loss, lack of storage space </t>
+  </si>
+  <si>
+    <t>Poorly defined requirements, Idealising solutions that cannot be implemented, Inaccurate estimate</t>
+  </si>
+  <si>
+    <t>Integrated problems, failed final tests, system failures due to adjustments, impacting operational tasks</t>
+  </si>
+  <si>
+    <t>Options Limited availability, availability issues, limited options and insufficient information, market reliability and stability, warranty compliance </t>
+  </si>
+  <si>
+    <t>Technical incompatibilities, poor selection leading to costs associated with reinvesting in improved hardware</t>
+  </si>
+  <si>
+    <t>Technical restrictions, contractual delays, coordination issues with the supplier leading to cost overruns</t>
+  </si>
+  <si>
+    <t>Incorrect configuration, unauthorised access</t>
+  </si>
+  <si>
+    <t>Shipping delays, unit shortages, mistakes in logging and handling new devices</t>
+  </si>
+  <si>
+    <t>Logistical issues, delays and increased costs due to employee training, hardware incompatibility</t>
+  </si>
+  <si>
+    <t>Unintuitive design, lack of client commitment</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="#,###&quot; days&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00&quot; days&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,###&quot; days&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot; days&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -558,32 +558,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -677,47 +657,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCCED96-865F-42B1-814A-F0DD7A1F90A0}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,1457 +1042,1457 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.21875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <f>(B2+4*C2+D2)/6</f>
         <v>4</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <f>(D2-B2)/6</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>157</v>
+      <c r="H2" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E66" si="0">(B3+4*C3+D3)/6</f>
         <v>2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="1">(D3-B3)/6</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
+      <c r="H3" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>150</v>
+      <c r="H4" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
         <v>7</v>
       </c>
-      <c r="E5" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
+      <c r="H5" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>86</v>
+      <c r="H6" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0.5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>151</v>
+      <c r="H7" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>12</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>87</v>
+      <c r="H8" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
         <v>6</v>
       </c>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>90</v>
+      <c r="H11" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>10</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>91</v>
+      <c r="H12" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
         <v>8</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>92</v>
+      <c r="H13" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
         <v>6</v>
       </c>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>93</v>
+      <c r="H14" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G15" s="2">
         <v>13</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
+      <c r="H15" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
         <v>6</v>
       </c>
-      <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G16" s="2">
         <v>11</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>95</v>
+      <c r="H16" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="A17" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
         <v>8</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>96</v>
+      <c r="H17" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>9</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G18" s="2">
         <v>16</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>97</v>
+      <c r="H18" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="A19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
         <v>7</v>
       </c>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G19" s="2">
         <v>17</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>98</v>
+      <c r="H19" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="A20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G20" s="2">
         <v>13</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>99</v>
+      <c r="H20" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="A21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
         <v>6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G21" s="2">
         <v>19</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>100</v>
+      <c r="H21" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="A22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G22" s="2">
         <v>20</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6">
+        <v>9</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="H23" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6">
         <v>6</v>
       </c>
-      <c r="D23" s="8">
-        <v>9</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>15</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G24" s="2">
         <v>22</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>103</v>
+      <c r="H24" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="A25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
         <v>8</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G25" s="2">
         <v>23</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>104</v>
+      <c r="H25" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="8">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="A26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6">
         <v>6</v>
       </c>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G26" s="2">
         <v>23</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="H26" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>9</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8">
-        <v>4</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="H27" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="8">
-        <v>9</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="0"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="8">
-        <v>2</v>
-      </c>
-      <c r="C28" s="8">
-        <v>4</v>
-      </c>
-      <c r="D28" s="8">
-        <v>6</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="H28" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="8">
-        <v>3</v>
-      </c>
-      <c r="D29" s="8">
-        <v>5</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G29" s="2">
         <v>27</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="8">
-        <v>2</v>
-      </c>
-      <c r="C30" s="8">
-        <v>4</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="H29" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
         <v>7</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G30" s="2">
         <v>28</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="H30" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="8">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>4</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G31" s="2">
         <v>8</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>110</v>
+      <c r="H31" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8">
-        <v>4</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="A32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
         <v>6</v>
       </c>
-      <c r="E32" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G32" s="2">
         <v>30</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>111</v>
+      <c r="H32" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6">
         <v>1</v>
       </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>4</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G33" s="2">
         <v>31</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>112</v>
+      <c r="H33" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="6">
         <v>1</v>
       </c>
-      <c r="C34" s="8">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G34" s="2">
         <v>29</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>113</v>
+      <c r="H34" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="8">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="A35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6">
         <v>8</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G35" s="2">
         <v>33</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>114</v>
+      <c r="H35" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="8">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
-        <v>4</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="H36" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4</v>
+      </c>
+      <c r="D37" s="6">
         <v>6</v>
       </c>
-      <c r="E36" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="8">
-        <v>2</v>
-      </c>
-      <c r="C37" s="8">
-        <v>4</v>
-      </c>
-      <c r="D37" s="8">
-        <v>6</v>
-      </c>
-      <c r="E37" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="E37" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G37" s="2">
         <v>35</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>116</v>
+      <c r="H37" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="8">
-        <v>2</v>
-      </c>
-      <c r="C38" s="8">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>5</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="A38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G38" s="2">
         <v>36</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>7</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="8">
-        <v>3</v>
-      </c>
-      <c r="C39" s="8">
-        <v>5</v>
-      </c>
-      <c r="D39" s="8">
-        <v>7</v>
-      </c>
-      <c r="E39" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>1</v>
       </c>
-      <c r="C40" s="8">
-        <v>2</v>
-      </c>
-      <c r="D40" s="8">
-        <v>4</v>
-      </c>
-      <c r="E40" s="12">
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G40" s="2">
         <v>38</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="8">
-        <v>2</v>
-      </c>
-      <c r="C41" s="8">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8">
-        <v>5</v>
-      </c>
-      <c r="E41" s="12">
+    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="8">
+      <c r="A42" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="6">
         <v>1</v>
       </c>
-      <c r="C42" s="8">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8">
-        <v>4</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G42" s="2">
         <v>40</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>121</v>
+      <c r="H42" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="8">
-        <v>2</v>
-      </c>
-      <c r="C43" s="8">
-        <v>4</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="A43" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6">
         <v>6</v>
       </c>
-      <c r="E43" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="13">
+      <c r="E43" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G43" s="2">
         <v>41</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>122</v>
+      <c r="H43" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="8">
-        <v>2</v>
-      </c>
-      <c r="C44" s="8">
-        <v>3</v>
-      </c>
-      <c r="D44" s="8">
-        <v>5</v>
-      </c>
-      <c r="E44" s="12">
+      <c r="A44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5</v>
+      </c>
+      <c r="E44" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G44" s="2">
         <v>42</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="8">
-        <v>3</v>
-      </c>
-      <c r="C45" s="8">
-        <v>5</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="H44" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6">
         <v>7</v>
       </c>
-      <c r="E45" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G45" s="2">
         <v>43</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>124</v>
+      <c r="H45" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="8">
-        <v>3</v>
-      </c>
-      <c r="C46" s="8">
-        <v>5</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="A46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
         <v>8</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G46" s="2">
         <v>43</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="H46" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="6">
         <v>1</v>
       </c>
-      <c r="C47" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" s="8">
-        <v>4</v>
-      </c>
-      <c r="E47" s="12">
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G47" s="2">
         <v>43</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>9</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="0"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6">
+        <v>12</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="6">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6">
+        <v>13</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="6">
+        <v>3</v>
+      </c>
+      <c r="C51" s="6">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>8</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="8">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8">
-        <v>9</v>
-      </c>
-      <c r="E48" s="12">
-        <f t="shared" si="0"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="F48" s="13">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="8">
-        <v>5</v>
-      </c>
-      <c r="C49" s="8">
-        <v>8</v>
-      </c>
-      <c r="D49" s="8">
-        <v>12</v>
-      </c>
-      <c r="E49" s="12">
-        <f t="shared" si="0"/>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="F49" s="13">
-        <f t="shared" si="1"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="G49" s="2" t="s">
+    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="8">
-        <v>5</v>
-      </c>
-      <c r="C50" s="8">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8">
-        <v>13</v>
-      </c>
-      <c r="E50" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F50" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="8">
-        <v>3</v>
-      </c>
-      <c r="C51" s="8">
-        <v>5</v>
-      </c>
-      <c r="D51" s="8">
-        <v>8</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="F51" s="13">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="B52" s="6">
         <v>1</v>
       </c>
-      <c r="C52" s="8">
-        <v>2</v>
-      </c>
-      <c r="D52" s="8">
-        <v>4</v>
-      </c>
-      <c r="E52" s="12">
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2523,27 +2500,27 @@
         <v>50</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="6">
         <v>1</v>
       </c>
-      <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="8">
-        <v>3</v>
-      </c>
-      <c r="E53" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F53" s="13">
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="11">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2551,27 +2528,27 @@
         <v>51</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="A54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="6">
         <v>1</v>
       </c>
-      <c r="C54" s="8">
-        <v>2</v>
-      </c>
-      <c r="D54" s="8">
-        <v>4</v>
-      </c>
-      <c r="E54" s="12">
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2579,27 +2556,27 @@
         <v>52</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="8">
-        <v>2</v>
-      </c>
-      <c r="C55" s="8">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8">
-        <v>5</v>
-      </c>
-      <c r="E55" s="12">
+      <c r="A55" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5</v>
+      </c>
+      <c r="E55" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2607,27 +2584,27 @@
         <v>53</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="8">
-        <v>3</v>
-      </c>
-      <c r="C56" s="8">
-        <v>5</v>
-      </c>
-      <c r="D56" s="8">
+      <c r="A56" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
         <v>8</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="10">
         <f t="shared" si="0"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="11">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
@@ -2635,27 +2612,27 @@
         <v>54</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="8">
+      <c r="A57" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="6">
         <v>1</v>
       </c>
-      <c r="C57" s="8">
-        <v>3</v>
-      </c>
-      <c r="D57" s="8">
-        <v>5</v>
-      </c>
-      <c r="E57" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="C57" s="6">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>5</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F57" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2663,27 +2640,27 @@
         <v>55</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="6">
         <v>1</v>
       </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
-      <c r="D58" s="8">
-        <v>4</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
+      </c>
+      <c r="E58" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2691,27 +2668,27 @@
         <v>56</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="8">
-        <v>2</v>
-      </c>
-      <c r="C59" s="8">
-        <v>3</v>
-      </c>
-      <c r="D59" s="8">
-        <v>5</v>
-      </c>
-      <c r="E59" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="6">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6">
+        <v>5</v>
+      </c>
+      <c r="E59" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2719,27 +2696,27 @@
         <v>57</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="8">
-        <v>2</v>
-      </c>
-      <c r="C60" s="8">
-        <v>4</v>
-      </c>
-      <c r="D60" s="8">
+      <c r="A60" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2</v>
+      </c>
+      <c r="C60" s="6">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6">
         <v>6</v>
       </c>
-      <c r="E60" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="E60" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2747,27 +2724,27 @@
         <v>58</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="8">
-        <v>3</v>
-      </c>
-      <c r="C61" s="8">
-        <v>5</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="A61" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="6">
+        <v>3</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
         <v>7</v>
       </c>
-      <c r="E61" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="E61" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F61" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2775,27 +2752,27 @@
         <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="8">
-        <v>2</v>
-      </c>
-      <c r="C62" s="8">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8">
+      <c r="A62" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="6">
+        <v>2</v>
+      </c>
+      <c r="C62" s="6">
+        <v>4</v>
+      </c>
+      <c r="D62" s="6">
         <v>6</v>
       </c>
-      <c r="E62" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E62" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F62" s="11">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2803,27 +2780,27 @@
         <v>60</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="8">
+      <c r="A63" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="6">
         <v>1</v>
       </c>
-      <c r="C63" s="8">
-        <v>2</v>
-      </c>
-      <c r="D63" s="8">
-        <v>4</v>
-      </c>
-      <c r="E63" s="12">
+      <c r="C63" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6">
+        <v>4</v>
+      </c>
+      <c r="E63" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2831,55 +2808,55 @@
         <v>61</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="8">
+      <c r="A64" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="6">
         <v>0.5</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="6">
         <v>1</v>
       </c>
-      <c r="D64" s="8">
-        <v>2</v>
-      </c>
-      <c r="E64" s="12">
+      <c r="D64" s="6">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="11">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="8">
-        <v>2</v>
-      </c>
-      <c r="C65" s="8">
-        <v>3</v>
-      </c>
-      <c r="D65" s="8">
-        <v>5</v>
-      </c>
-      <c r="E65" s="12">
+      <c r="A65" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6">
+        <v>5</v>
+      </c>
+      <c r="E65" s="10">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="11">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2887,27 +2864,27 @@
         <v>63</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="8">
+      <c r="A66" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="6">
         <v>1</v>
       </c>
-      <c r="C66" s="8">
-        <v>2</v>
-      </c>
-      <c r="D66" s="8">
-        <v>3</v>
-      </c>
-      <c r="E66" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F66" s="13">
+      <c r="C66" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6">
+        <v>3</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="11">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2915,27 +2892,27 @@
         <v>64</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="8">
-        <v>2</v>
-      </c>
-      <c r="C67" s="8">
-        <v>4</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="A67" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="6">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6">
+        <v>4</v>
+      </c>
+      <c r="D67" s="6">
         <v>6</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="10">
         <f t="shared" ref="E67:E70" si="2">(B67+4*C67+D67)/6</f>
         <v>4</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="11">
         <f t="shared" ref="F67:F70" si="3">(D67-B67)/6</f>
         <v>0.66666666666666663</v>
       </c>
@@ -2943,27 +2920,27 @@
         <v>65</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="8">
+      <c r="A68" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="6">
         <v>1</v>
       </c>
-      <c r="C68" s="8">
-        <v>2</v>
-      </c>
-      <c r="D68" s="8">
-        <v>3</v>
-      </c>
-      <c r="E68" s="12">
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3</v>
+      </c>
+      <c r="E68" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="11">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2971,27 +2948,27 @@
         <v>66</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="8">
+      <c r="A69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="6">
         <v>1</v>
       </c>
-      <c r="C69" s="8">
-        <v>2</v>
-      </c>
-      <c r="D69" s="8">
-        <v>4</v>
-      </c>
-      <c r="E69" s="12">
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6">
+        <v>4</v>
+      </c>
+      <c r="E69" s="10">
         <f t="shared" si="2"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="11">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -2999,35 +2976,35 @@
         <v>67</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="9">
+      <c r="A70" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="7">
         <v>1</v>
       </c>
-      <c r="C70" s="9">
-        <v>3</v>
-      </c>
-      <c r="D70" s="9">
-        <v>5</v>
-      </c>
-      <c r="E70" s="14">
+      <c r="C70" s="7">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
+        <v>5</v>
+      </c>
+      <c r="E70" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="11">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
